--- a/ezbuy 产品管理.xlsx
+++ b/ezbuy 产品管理.xlsx
@@ -1,1108 +1,975 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Real Bubee" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="生活用品" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>链接</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real Bubee RB01 Bilateral Electric Breast Pump Suction Large Automatic Breast Pump瑞尔芭比孕产妇双边电动吸奶器吸乳挤奶器吸力大自动 按摩产后拔奶催乳器</t>
   </si>
   <si>
     <t>RB01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69+6</t>
+  </si>
+  <si>
+    <t>0.6kg</t>
+  </si>
+  <si>
+    <t>宁波</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556273723267.html?spm=a2615.7691456.0.0.22d0e8a6OrKMby</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>Real Bubee RB02 Suction Big Maternity Supplies Milking Machine Breast Feeding Lactation Milk Prolactin Manual Breast PumpReal Bubee 吸力大孕产妇用品挤奶器拔奶哺乳抽奶催乳手动吸奶器</t>
+  </si>
+  <si>
     <t>RB02</t>
   </si>
   <si>
+    <t>16.9+10</t>
+  </si>
+  <si>
+    <t>0.32kg</t>
+  </si>
+  <si>
     <t>https://detail.1688.com/offer/556095204855.html?spm=a2615.7691456.0.0.22d0e8a6OrKMby</t>
   </si>
   <si>
-    <t>16.9+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.32kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real Bubee RB02 Suction Big Maternity Supplies Milking Machine Breast Feeding Lactation Milk Prolactin Manual Breast PumpReal Bubee 吸力大孕产妇用品挤奶器拔奶哺乳抽奶催乳手动吸奶器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>Real Bubee RB03 Manual Breast Pump Companion Silicone Anti-galactorrhea Milk Collector 瑞尔芭比手动电动吸奶器伴侣全硅胶防溢乳母乳收集器</t>
+  </si>
+  <si>
     <t>RB03</t>
   </si>
   <si>
     <t>12+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://detail.1688.com/offer/556219182748.html?spm=a2615.7691456.0.0.22d0e8a6OrKMby</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>59+15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/556096924143.html?spm=a2615.7691456.0.0.1adc0ad4NG8k30</t>
-  </si>
-  <si>
-    <t>Real Bubee RB03 Manual Breast Pump Companion Silicone Anti-galactorrhea Milk Collector 瑞尔芭比手动电动吸奶器伴侣全硅胶防溢乳母乳收集器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100+20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Real Bubee RB04 Electric Breast Pump Maternal Breast Milk Pump Suction Large Automatic Breast Pump瑞尔芭比电动吸奶器孕产妇吸乳挤奶器吸力大自动产后拔奶催乳器
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB04</t>
+  </si>
+  <si>
+    <t>59+15</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556096924143.html?spm=a2615.7691456.0.0.1adc0ad4NG8k30</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Real Bubee RB05 Suction Large Electric Breast Pump Automatic Milking Breast Pump Maternal Breast Pumping Device瑞尔芭比吸力大电动吸奶器自动挤奶器吸乳器孕产妇拔奶器</t>
+  </si>
+  <si>
+    <t>RB05</t>
+  </si>
+  <si>
+    <t>100+20</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556094908916.html?spm=a2615.7691456.0.0.1adc0ad4QqiRwK</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>Real Bubee RB06 the Original Accessories Breast Pump Silicone Massage Pad</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>RB06</t>
   </si>
   <si>
-    <t>https://detail.1688.com/offer/556094908916.html?spm=a2615.7691456.0.0.1adc0ad4QqiRwK</t>
-  </si>
-  <si>
     <t>https://detail.1688.com/offer/556095300733.html?spm=a2615.7691456.0.0.1adc0ad4QqiRwK</t>
   </si>
   <si>
-    <t>12+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Real Bubee RB07 Maternal Postpartum Electric Breast Pump Automatic Breast Pump Genuine Authentic瑞尔芭比孕产妇产后电动吸奶器 自动吸乳挤奶器正品静音吸力大</t>
+  </si>
+  <si>
+    <t>RB07</t>
   </si>
   <si>
     <t>198+20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://detail.1688.com/offer/556272859708.html?spm=a2615.7691456.0.0.1adc0ad4QqiRwK</t>
   </si>
   <si>
-    <t>Real Bubee RB05 Suction Large Electric Breast Pump Automatic Milking Breast Pump Maternal Breast Pumping Device瑞尔芭比吸力大电动吸奶器自动挤奶器吸乳器孕产妇拔奶器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://detail.1688.com/offer/556096260210.html?spm=a2615.7691456.0.0.1adc0ad4QqiRwK</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Real Bubee RB01 Bilateral Electric Breast Pump Suction Large Automatic Breast Pump瑞尔芭比孕产妇双边电动吸奶器吸乳挤奶器吸力大自动 按摩产后拔奶催乳器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>RealBubee Maternal Breast Milk Pump Suction Automatic Massage Breast Pump Milk Propeller      瑞尔芭比孕产妇吸乳挤奶器吸力大自动按摩拔奶催乳电动吸奶器</t>
+  </si>
+  <si>
+    <t>RB08</t>
+  </si>
+  <si>
+    <t>56+15</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556219698453.html?spm=a2615.7691456.0.0.2818dec39djuK</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>RealBubee RB09 Warm Milk Liquid Thermostat Bottle Disinfection Bottle Warmer Hot Milk Bottle瑞尔芭比暖奶器液体恒温暖酒器奶瓶消毒保温双瓶温奶器热奶器</t>
+  </si>
+  <si>
+    <t>RB09</t>
+  </si>
+  <si>
+    <t>58+20</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556219686488.html?spm=a2615.7691456.0.0.1f22ac78NKuZWz</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
+    <t>RealBubee RB10 Nipple Protective Cover Nipple Protection Nursing Milk Feeding Bite-Aid Ultra-Slim Milk Shield瑞尔芭比乳头保护罩奶头贴哺乳保护器护奶喂奶防咬辅助超薄乳盾</t>
+  </si>
+  <si>
+    <t>RB10</t>
+  </si>
+  <si>
+    <t>16+10</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556176805352.html?spm=a2615.7691456.0.0.7af3cb98RmAXnC</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>Golden Fruit RB11 Multifunctional Baby Electric Grinding Machine Children's Manicure Care Sets Nail Tools多功能婴儿电动磨甲器儿童修甲护理套装美甲工具</t>
+  </si>
+  <si>
+    <t>RB11</t>
+  </si>
+  <si>
+    <t>26+6</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/537008830578.html?spm=a2615.7691456.0.0.55c71c83PKrHw4</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
+    <t>New Santa Claus Toys 37cm Plush Puppet Super Soft Short Plush Doll Christmas Gifts  新款圣诞老人玩具37cm毛绒手偶超柔短毛绒玩偶圣诞节礼品</t>
+  </si>
+  <si>
+    <t>RB12</t>
+  </si>
+  <si>
+    <t>13.8+6</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/558751701808.html?spm=b26110380.sw1688.mof001.1.qCX70d&amp;tracelog=p4p</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
+    <t>New Christmas Plush Toys A Family Of Six Figures Modeling Finger Doll Suit RB13   新圣诞毛绒玩具一家亲六款人物造型手指玩偶套装</t>
+  </si>
+  <si>
+    <t>RB13</t>
+  </si>
+  <si>
+    <t>18+6</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/558829645592.html?spm=a2615.7691456.0.0.1bddcf6ccNvHy9</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
+    <t xml:space="preserve">DRSTAR Christmas snowman Santa Christmas deer Christmas Bear diamond small particles assembled building blocks children's puzzle     DRSTAR 圣诞雪人圣诞老人圣诞迷鹿圣诞小熊钻石小颗粒拼装积木儿童益智类玩具 </t>
+  </si>
+  <si>
+    <t>RB14</t>
+  </si>
+  <si>
+    <t>9.5+6</t>
+  </si>
+  <si>
+    <t>义乌市江东街道东新屋村87幢3号</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/533932922303.html?spm=b26110380.sw1688.mof001.1097.qCX70d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
+    <t>ZCUBE - Christmas Children Gift Christmas Puzzle Child Cube Christmas Tree Cube RB15   ZCUBE圣诞儿童礼物圣诞益智类儿童魔方圣诞树魔方</t>
+  </si>
+  <si>
+    <t>RB15</t>
+  </si>
+  <si>
+    <t>13.5+12</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/561746043189.html?spm=b26110380.sw1688.mof001.1329.qCX70d</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t>Christmas Santa Claus Flashing Pendant  圣诞节圣诞老人闪光挂件</t>
+  </si>
+  <si>
+    <t>RB16</t>
+  </si>
+  <si>
+    <t>1.1+5</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/38875333343.html?spm=b26110380.sw1688.mof001.1395.qCX70d</t>
+  </si>
+  <si>
+    <t>已下架</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>Christmas Photo Props Creative Funny Santa Claus Big White Paper Mustache Camera Props Party Supplies 圣诞节拍照道具 创意搞怪圣诞老人大白纸胡子拍照小道具派对用品</t>
+  </si>
+  <si>
+    <t>RB17</t>
+  </si>
+  <si>
+    <t>5+5</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/547464321504.html?spm=b26110380.sw1688.mof001.1616.qCX70d</t>
+  </si>
+  <si>
+    <t>可以参加满减之类的活动，不然单个卖，不能包邮</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
+    <t>Christmas Toys Christmas Baubles Small Toys RB18  圣诞玩具圣诞挂件小玩具圣诞老人圣诞迷鹿圣诞雪人</t>
+  </si>
+  <si>
+    <t>RB18</t>
+  </si>
+  <si>
+    <t>10+7</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525620813262.html?spm=b26110380.sw1688.mof001.2225.qCX70d</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>Bear Baby Pillow Bear Stereotypes Pillow  Baby Head Pillow Newborn Anti-Head Pillow  转转熊婴儿枕头小熊定型枕/宝宝头枕新生儿防偏头枕头</t>
+  </si>
+  <si>
+    <t>RB19</t>
+  </si>
+  <si>
+    <t>3+5</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/537468134017.html?spm=b26110380.sw1688.mof001.10.swlACm</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
+    <t>Baby Pillow Newborn Baby Infant Pillow Prevent Deformity Pillow Diamond Shoulder Memory Cotton Pillow   婴儿枕头 新生儿宝宝婴幼儿枕头防偏头定型枕钻石绒记忆棉枕</t>
+  </si>
+  <si>
+    <t>RB20</t>
+  </si>
+  <si>
+    <t>30.99   28.99                26.99          23.99</t>
+  </si>
+  <si>
+    <t>10.5+5   8.71+5            7.21+5           5.46+5</t>
+  </si>
+  <si>
+    <t>安徽 六安</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/525359056142.html?spm=b26110380.sw1688.mof001.91.swlACm&amp;tracelog=p4p</t>
+  </si>
+  <si>
+    <t>备用的https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a1z02.1.972272805.d4919661.5b7ea0904xUFND&amp;action=itemlist/BoughtQueryAction&amp;event_submit_do_query=1&amp;tabCode=waitSend</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
+    <t>Baby Stroller Bag Baby Products Baby Carriage Mummy Bag Padded Pearl Cotton Lining RB21         婴儿推车挂包母婴用品童车妈咪包加厚珍珠棉内衬</t>
+  </si>
+  <si>
+    <t>RB21</t>
+  </si>
+  <si>
+    <t>18+5</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539671479720.html?spm=b26110380.sw1688.0.11.zca8gg</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
+    <t>Waterproof Mummy Bag Five Sets Of Multi-Functional Fashion High-Capacity Mother Bag RB22 防水妈咪包五件套 多功能时尚大容量妈妈包</t>
+  </si>
+  <si>
+    <t>RB22</t>
+  </si>
+  <si>
+    <t>42+7</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/531800740310.html?spm=b26110380.sw1688.mof001.448.Yy3a6P</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
+    <t>Labyrinth Children 3D Stereo Puzzle Ball Walking Puzzle Educational Toys Three-Dimensional Labyrinth Ball   迷宫 儿童3d立体幻智球走珠益智玩具 立体迷宫球</t>
+  </si>
+  <si>
+    <t>RB23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7(6cm)      54 (9cm) </t>
+  </si>
+  <si>
+    <t>5.8+10   16+10</t>
+  </si>
+  <si>
+    <t>0.11   0.32</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/538143495803.html?spm=a312h.7841636.1998813769.d_pic_18.DZHuaK&amp;tracelog=p4p</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
+    <t>Baby Breathable Vest Basket Toddlers RB24   婴儿透气马夹提篮式学步带</t>
+  </si>
+  <si>
+    <t>RB24</t>
+  </si>
+  <si>
+    <t>8.5+5</t>
+  </si>
+  <si>
+    <t>义乌市后宅街道鹤田村</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/520008014226.html?spm=b26110380.sw1688.mof001.2.EVendM</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
+    <t>Mermaid New Bottle Rack PP Baby Bottle Rack Bottle Drying Rack RB25   人鱼公主新款奶瓶架 PP婴儿奶瓶架 奶瓶晾晒架</t>
+  </si>
+  <si>
+    <t>RB25</t>
+  </si>
+  <si>
+    <t>22+8</t>
+  </si>
+  <si>
+    <t>东阳市东阳经济开发区长松岗功能区湖莲东街1216号1号楼一层</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/557173813874.html?spm=a2615.7691456.0.0.346a1c22Uv4fgY#</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
+    <t>Toilet Bowl Toilet Plus Size Male Baby Sitting Circle Girl Children Toilet Cover Pad RB26   儿童马桶圈坐便器加大号 男宝宝坐便圈 女小孩马桶盖垫 婴幼儿座便器</t>
+  </si>
+  <si>
+    <t>RB26</t>
+  </si>
+  <si>
+    <t>12+5</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/560063434865.html?spm=a261y.7663282.0.0.69491e63yxhyy6</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
+    <t>Man Ba Mummy Bag Multi-Function High-Capacity Maternal And  Child Package Mummy Bag Messenger Bag RB27  蔓葆妈咪包多功能大容量母婴包孕妇包餐椅包妈咪袋斜挎包</t>
+  </si>
+  <si>
+    <t>RB27</t>
+  </si>
+  <si>
+    <t>119+10</t>
+  </si>
+  <si>
+    <t>义乌市城西街道新双溪村2幢 </t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/521272204370.html?spm=a2615.7691456.0.0.3af3dbcetNtxyT</t>
+  </si>
+  <si>
     <t>28</t>
   </si>
   <si>
+    <t>Manual Breast Pump Full Silicone Anti-Galactorrhea Breast Milk Collector Cap Automatically Collected Breast Milk RB28 手动吸奶器 全硅胶防溢乳母乳收集器 自动采集母乳加盖</t>
+  </si>
+  <si>
+    <t>RB28</t>
+  </si>
+  <si>
+    <t>7.2+6</t>
+  </si>
+  <si>
+    <t> 义乌市北苑街道曹道村稠山一区85幢5号</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/537321257803.html?spm=b26110380.sw1688.mof001.751.EcLsk3</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
+    <t>Bilateral Electric Breast Pump Maternal Automatic Breast Pump Massage Extrusion RB29 双边电动吸奶器 孕产妇自动吸乳器按摩挤拔</t>
+  </si>
+  <si>
+    <t>RB29</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/544409165242.html?spm=b26110380.sw1688.mof001.80.Wgem12&amp;tracelog=p4p</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
+    <t xml:space="preserve"> Electric Breast Pump Mute Maternal Breast Pump Automatic Massage Milking Suck Pull Milk Machine RB30  电动吸奶器 静音孕产妇吸乳器 自动按摩挤奶器 吸力大拔奶器</t>
+  </si>
+  <si>
+    <t>RB30</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556383223236.html?spm=b26110380.sw1688.mof001.372.Wgem12</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
+    <t>Electric Breast Pump Massage Mute LCD Ten Adjustable Display RB31 电动吸奶器 按摩吸奶 静音 液晶显示 十档可调</t>
+  </si>
+  <si>
+    <t>RB31</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/554187641843.html?spm=a2615.7691456.0.0.6041a6a8MQSWQq</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
+    <t>Electric Breast Pump Massage Milkshake Adjustable Electric Mute Breast Pump Silicone Breast Pump RB32  电动吸奶器按摩吸奶九档可调 电动静音吸奶器硅胶吸奶器</t>
+  </si>
+  <si>
+    <t>RB32</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/554220522473.html?spm=a2615.7691456.0.0.6041a6a8ERrCMn</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
+    <t xml:space="preserve"> Small Starfish Sleeping Bag Clip Cotton Baby Sleeping Bag Winter Thicker Cotton Sleeping Bag  小海星睡袋夹棉 婴儿睡袋 冬季加厚款 纯棉睡袋</t>
+  </si>
+  <si>
+    <t>RB33</t>
+  </si>
+  <si>
+    <t>46.55+12</t>
+  </si>
+  <si>
+    <t>福建福州</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/537793278707.html?spm=b26110380.sw1688.mof001.232.NPPTDN</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
+    <t>Baby Bed Head Childrens Toys Q Meng Owl Tumbler High-Quality Fall-Resistant Baby Toys RB34 婴儿床头儿童玩具Q萌猫头鹰不倒翁 高品质耐摔婴儿玩具</t>
+  </si>
+  <si>
+    <t>RB34</t>
+  </si>
+  <si>
+    <t>6.5+8</t>
+  </si>
+  <si>
+    <t>广东汕头</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/549099713339.html?spm=a2615.7691456.0.0.ec169cfXrPvTm</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
+    <t>Children's Toy 23.5cm Large Rattle Drums Infant Hand Drum RB35 儿童玩具 23.5cm大号拨浪鼓摇鼓 婴幼儿手摇鼓</t>
+  </si>
+  <si>
+    <t>RB35</t>
+  </si>
+  <si>
+    <t>1.05+5</t>
+  </si>
+  <si>
+    <t>浙江义乌</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/548091073925.html?spm=b26110380.sw1688.mof001.38.28CAnE&amp;tracelog=p4p</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
+    <t>Ruanjiao Animal Hand Ball Baby Baby Band Catch Rattle Ball Fitness Soft Rubber Ball Bell Ball Early Education Toys RB36 软胶动物手抓球 婴儿宝宝手抓摇铃球 健身软胶球铃 铛球早教玩具</t>
+  </si>
+  <si>
+    <t>RB36</t>
+  </si>
+  <si>
+    <t>9.75+8</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556016949803.html?spm=a2615.7691456.0.0.42734db5F1vTfj</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
+    <t>Sound And Light Soft Animal Early Childhood Educational Toys RB37  声光软胶动物 幼儿早教益智玩具</t>
+  </si>
+  <si>
+    <t>RB37</t>
+  </si>
+  <si>
+    <t>16.5+8</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/556283675121.html?spm=a2615.7691456.0.0.2c74d6eeQfjY0J</t>
+  </si>
+  <si>
     <t>38</t>
   </si>
   <si>
+    <t>Swan 24 Hole Polyphonic C Harmonica Beginner Children Adult Students Playing Musical Instruments RB38  天鹅24孔复音C调口琴初学者儿童成人学生演奏乐器</t>
+  </si>
+  <si>
+    <t>RB38</t>
+  </si>
+  <si>
+    <t>24.5+7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">义乌市诚信三街57号201室 </t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/544677722928.html?spm=b26110380.sw1688.mof001.569.FKjC7z</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
+    <t>10-Tone Thumb Piano Children's Percussion Instrument Finger Piano Puzzle Music Thumb Piano RB39  10音拇指琴儿童打击乐器手指琴益智乐器拇指钢琴</t>
+  </si>
+  <si>
+    <t>RB39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75         82 </t>
+  </si>
+  <si>
+    <t>28+8    32+8</t>
+  </si>
+  <si>
+    <t>河北廊坊           50个包邮</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/544788772369.html?spm=b26110380.sw1688.mof001.484.FKjC7z</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
+    <t>Leisure Decompression Game Finger Yo-Yo Children Led Colorful Glow Finger Yo-Yo RB40  休闲减压游戏指尖悠悠球 儿童led七彩发光手指溜溜球</t>
+  </si>
+  <si>
+    <t>RB40</t>
+  </si>
+  <si>
+    <t>2.5+5</t>
+  </si>
+  <si>
+    <t>义乌市北苑街道青莲三区15幢1单元</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/560549924371.html?spm=a2615.7691456.0.0.35f766cfIa5z8s</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
+    <t>Children's Traditional Auspicious 16CM Rattle Drum Toys Infants And Young Children Beat The Drums Beat Percussion Instruments  RB41  儿童16CM传统吉祥手摇铃鼓玩具 婴幼儿手拍鼓 拍打击乐器</t>
+  </si>
+  <si>
+    <t>RB41</t>
+  </si>
+  <si>
+    <t>3.55+9</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/523284260167.html?spm=b26110380.sw1688.mof001.833.FKjC7z</t>
+  </si>
+  <si>
     <t>42</t>
   </si>
   <si>
+    <t>Breastfeeding Bra Stereotyped Postpartum Cotton Spill Pad Washable RB42   哺乳文胸定型垫 产后全棉防溢乳垫可洗</t>
+  </si>
+  <si>
+    <t>RB42</t>
+  </si>
+  <si>
+    <t>13+6</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/531547011330.html?spm=a261y.7663282.0.0.218c4053wuJyai</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
+    <t>Realbubee30 Breastfeeding  Milk Storage Bag  Breastfeeding Bag 100ml   realbubee30片装母乳储存存奶袋 储奶袋装奶袋母乳保鲜袋100ml</t>
+  </si>
+  <si>
+    <t>RB43</t>
+  </si>
+  <si>
+    <t>22+7</t>
+  </si>
+  <si>
+    <t>浙江宁波</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/557224103598.html?spm=a2615.7691456.0.0.3f8fb53f8q6LmB</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
+    <t>Modern Pregnancy Maternity Pregnancy Underwear Quality Cotton Crotch Low Waist Care Abdominal Pregnancy Large Size Pregnancy Shorts Underwear  QC1  摩登孕妈怀孕内裤优质棉里裆低腰托腹产妇孕期大码怀孕期短裤内衣</t>
+  </si>
+  <si>
+    <t>QC1</t>
+  </si>
+  <si>
+    <t>5.5+6</t>
+  </si>
+  <si>
+    <t>江苏 镇江</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/541956168712.html?spm=a360q.8258388.0.0.Hm6FQs</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
+    <t>Portable Infant Chair Seat Bag Baby Safety Strap 7 Color Dining Chair Bag QC2   便携婴幼儿餐椅 座椅包 宝宝安全背带7色餐椅袋</t>
+  </si>
+  <si>
+    <t>QC2</t>
+  </si>
+  <si>
+    <t>39+6</t>
+  </si>
+  <si>
+    <t>中国 浙江 金华 义乌市北苑街道春华路588号A5-201室（托管289）</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/524362509883.html?spm=a2615.7691456.0.0.579a2bdaVi2Yii</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
+    <t>Plus Size Children Toilet Bowl Child Toilet Seat Pad Baby Toilet QC3   加大号儿童坐便器马桶圈宝宝坐便圈小孩马桶盖垫婴幼儿座便器</t>
+  </si>
+  <si>
+    <t>QC3</t>
+  </si>
+  <si>
+    <t>20+8</t>
+  </si>
+  <si>
+    <t>浙江台州</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/539024177971.html?spm=a260k.635.201611281604.244.BqzmTi</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/538882543262.html?spm=b26110380.8015204.xshy005.5.TTOV0D</t>
+  </si>
+  <si>
     <t>47</t>
   </si>
   <si>
+    <t>Newborn Baby Wide-Mouth Drop Proof, Children's Glass Bottle With Silicone Cover QC4 新生婴儿宽口防摔防爆 儿童玻璃奶瓶带硅胶套</t>
+  </si>
+  <si>
+    <t>QC4</t>
+  </si>
+  <si>
+    <t>32+12</t>
+  </si>
+  <si>
+    <t>广东东莞</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/562635348541.html?spm=b26110380.sw1688.mof001.70.lvZS9v&amp;tracelog=p4p</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
+    <t>Infant Nasal Aspirator, Thermometer And Other Care 10 Sets QC5 婴幼儿吸鼻器、体温计等护理10件套</t>
+  </si>
+  <si>
+    <t>QC5</t>
+  </si>
+  <si>
+    <t>20+6</t>
+  </si>
+  <si>
+    <t>广东阳江</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/44162939525.html?spm=b26110380.sw1688.mof001.42.dXMwib&amp;sk=consign</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/44162939525.html?spm=a2615.7691456.0.0.6301b973lkoptb</t>
+  </si>
+  <si>
     <t>49</t>
   </si>
   <si>
+    <t>Nobby 95x75CM PVC Leak-Proof Baby Mattress Urine Isolation Mattress QC6 诺比95x75CM PVC防漏超大婴儿床垫 隔尿床垫</t>
+  </si>
+  <si>
+    <t>QC6</t>
+  </si>
+  <si>
+    <t>16.5+6</t>
+  </si>
+  <si>
+    <t>广东深圳</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/1263847151.html?spm=a261y.7663282.0.0.322df619beykKs</t>
+  </si>
+  <si>
     <t>50</t>
   </si>
   <si>
-    <t>56+15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/556219698453.html?spm=a2615.7691456.0.0.2818dec39djuK</t>
-  </si>
-  <si>
-    <t>RB08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB09</t>
-  </si>
-  <si>
-    <t>58+20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/556219686488.html?spm=a2615.7691456.0.0.1f22ac78NKuZWz</t>
-  </si>
-  <si>
-    <t>RB10</t>
-  </si>
-  <si>
-    <t>16+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RealBubee RB10 Nipple Protective Cover Nipple Protection Nursing Milk Feeding Bite-Aid Ultra-Slim Milk Shield瑞尔芭比乳头保护罩奶头贴哺乳保护器护奶喂奶防咬辅助超薄乳盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/556176805352.html?spm=a2615.7691456.0.0.7af3cb98RmAXnC</t>
-  </si>
-  <si>
-    <t>26+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/537008830578.html?spm=a2615.7691456.0.0.55c71c83PKrHw4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Golden Fruit RB11 Multifunctional Baby Electric Grinding Machine Children's Manicure Care Sets Nail Tools多功能婴儿电动磨甲器儿童修甲护理套装美甲工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/558751701808.html?spm=b26110380.sw1688.mof001.1.qCX70d&amp;tracelog=p4p</t>
-  </si>
-  <si>
-    <t>13.8+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Santa Claus Toys 37cm Plush Puppet Super Soft Short Plush Doll Christmas Gifts  新款圣诞老人玩具37cm毛绒手偶超柔短毛绒玩偶圣诞节礼品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/558829645592.html?spm=a2615.7691456.0.0.1bddcf6ccNvHy9</t>
-  </si>
-  <si>
-    <t>18+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB13</t>
-  </si>
-  <si>
-    <t>RB15</t>
-  </si>
-  <si>
-    <t>RB16</t>
-  </si>
-  <si>
-    <t>9.5+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13.5+12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/561746043189.html?spm=b26110380.sw1688.mof001.1329.qCX70d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/38875333343.html?spm=b26110380.sw1688.mof001.1395.qCX70d</t>
-  </si>
-  <si>
-    <t>Christmas Santa Claus Flashing Pendant  圣诞节圣诞老人闪光挂件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以参加满减之类的活动，不然单个卖，不能包邮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/547464321504.html?spm=b26110380.sw1688.mof001.1616.qCX70d</t>
-  </si>
-  <si>
-    <t>5+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB17</t>
-  </si>
-  <si>
-    <t>RB18</t>
-  </si>
-  <si>
-    <t>RB19</t>
-  </si>
-  <si>
-    <t>RB20</t>
-  </si>
-  <si>
-    <t>10+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/525620813262.html?spm=b26110380.sw1688.mof001.2225.qCX70d</t>
-  </si>
-  <si>
-    <t>已下架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/537468134017.html?spm=b26110380.sw1688.mof001.10.swlACm</t>
-  </si>
-  <si>
-    <t>Christmas Toys Christmas Baubles Small Toys RB18  圣诞玩具圣诞挂件小玩具圣诞老人圣诞迷鹿圣诞雪人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Christmas Photo Props Creative Funny Santa Claus Big White Paper Mustache Camera Props Party Supplies 圣诞节拍照道具 创意搞怪圣诞老人大白纸胡子拍照小道具派对用品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZCUBE - Christmas Children Gift Christmas Puzzle Child Cube Christmas Tree Cube RB15   ZCUBE圣诞儿童礼物圣诞益智类儿童魔方圣诞树魔方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DRSTAR Christmas snowman Santa Christmas deer Christmas Bear diamond small particles assembled building blocks children's puzzle     DRSTAR 圣诞雪人圣诞老人圣诞迷鹿圣诞小熊钻石小颗粒拼装积木儿童益智类玩具 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Christmas Plush Toys A Family Of Six Figures Modeling Finger Doll Suit RB13   新圣诞毛绒玩具一家亲六款人物造型手指玩偶套装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bear Baby Pillow Bear Stereotypes Pillow  Baby Head Pillow Newborn Anti-Head Pillow  转转熊婴儿枕头小熊定型枕/宝宝头枕新生儿防偏头枕头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baby Pillow Newborn Baby Infant Pillow Prevent Deformity Pillow Diamond Shoulder Memory Cotton Pillow   婴儿枕头 新生儿宝宝婴幼儿枕头防偏头定型枕钻石绒记忆棉枕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/539671479720.html?spm=b26110380.sw1688.0.11.zca8gg</t>
-  </si>
-  <si>
-    <t>RB21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baby Stroller Bag Baby Products Baby Carriage Mummy Bag Padded Pearl Cotton Lining RB21         婴儿推车挂包母婴用品童车妈咪包加厚珍珠棉内衬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB23</t>
-  </si>
-  <si>
-    <t>42+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/531800740310.html?spm=b26110380.sw1688.mof001.448.Yy3a6P</t>
-  </si>
-  <si>
-    <t>Waterproof Mummy Bag Five Sets Of Multi-Functional Fashion High-Capacity Mother Bag RB22 防水妈咪包五件套 多功能时尚大容量妈妈包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.11   0.32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.8+10   16+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labyrinth Children 3D Stereo Puzzle Ball Walking Puzzle Educational Toys Three-Dimensional Labyrinth Ball   迷宫 儿童3d立体幻智球走珠益智玩具 立体迷宫球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7(6cm)      54 (9cm) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baby Breathable Vest Basket Toddlers RB24   婴儿透气马夹提篮式学步带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.5+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/520008014226.html?spm=b26110380.sw1688.mof001.2.EVendM</t>
-  </si>
-  <si>
-    <t>RB24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>义乌市后宅街道鹤田村</t>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Real Bubee RB07 Maternal Postpartum Electric Breast Pump Automatic Breast Pump Genuine Authentic瑞尔芭比孕产妇产后电动吸奶器 自动吸乳挤奶器正品静音吸力大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RealBubee Maternal Breast Milk Pump Suction Automatic Massage Breast Pump Milk Propeller      瑞尔芭比孕产妇吸乳挤奶器吸力大自动按摩拔奶催乳电动吸奶器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/538143495803.html?spm=a312h.7841636.1998813769.d_pic_18.DZHuaK&amp;tracelog=p4p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东阳市东阳经济开发区长松岗功能区湖莲东街1216号1号楼一层</t>
-  </si>
-  <si>
-    <t>22+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/557173813874.html?spm=a2615.7691456.0.0.346a1c22Uv4fgY#</t>
-  </si>
-  <si>
-    <t>Mermaid New Bottle Rack PP Baby Bottle Rack Bottle Drying Rack RB25   人鱼公主新款奶瓶架 PP婴儿奶瓶架 奶瓶晾晒架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toilet Bowl Toilet Plus Size Male Baby Sitting Circle Girl Children Toilet Cover Pad RB26   儿童马桶圈坐便器加大号 男宝宝坐便圈 女小孩马桶盖垫 婴幼儿座便器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>义乌市城西街道新双溪村2幢 </t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/521272204370.html?spm=a2615.7691456.0.0.3af3dbcetNtxyT</t>
-  </si>
-  <si>
-    <t>119+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Man Ba Mummy Bag Multi-Function High-Capacity Maternal And  Child Package Mummy Bag Messenger Bag RB27  蔓葆妈咪包多功能大容量母婴包孕妇包餐椅包妈咪袋斜挎包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manual Breast Pump Full Silicone Anti-Galactorrhea Breast Milk Collector Cap Automatically Collected Breast Milk RB28 手动吸奶器 全硅胶防溢乳母乳收集器 自动采集母乳加盖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.2+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> 义乌市北苑街道曹道村稠山一区85幢5号</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/537321257803.html?spm=b26110380.sw1688.mof001.751.EcLsk3</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/556273723267.html?spm=a2615.7691456.0.0.22d0e8a6OrKMby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/544409165242.html?spm=b26110380.sw1688.mof001.80.Wgem12&amp;tracelog=p4p</t>
-  </si>
-  <si>
-    <t>0.6kg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bilateral Electric Breast Pump Maternal Automatic Breast Pump Massage Extrusion RB29 双边电动吸奶器 孕产妇自动吸乳器按摩挤拔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/556383223236.html?spm=b26110380.sw1688.mof001.372.Wgem12</t>
-  </si>
-  <si>
-    <t>RB30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electric Breast Pump Mute Maternal Breast Pump Automatic Massage Milking Suck Pull Milk Machine RB30  电动吸奶器 静音孕产妇吸乳器 自动按摩挤奶器 吸力大拔奶器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/554187641843.html?spm=a2615.7691456.0.0.6041a6a8MQSWQq</t>
-  </si>
-  <si>
-    <t>Electric Breast Pump Massage Mute LCD Ten Adjustable Display RB31 电动吸奶器 按摩吸奶 静音 液晶显示 十档可调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/554220522473.html?spm=a2615.7691456.0.0.6041a6a8ERrCMn</t>
-  </si>
-  <si>
-    <t>RB32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Electric Breast Pump Massage Milkshake Adjustable Electric Mute Breast Pump Silicone Breast Pump RB32  电动吸奶器按摩吸奶九档可调 电动静音吸奶器硅胶吸奶器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/533932922303.html?spm=b26110380.sw1688.mof001.1097.qCX70d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>义乌市江东街道东新屋村87幢3号</t>
-  </si>
-  <si>
-    <t>备用的https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a1z02.1.972272805.d4919661.5b7ea0904xUFND&amp;action=itemlist/BoughtQueryAction&amp;event_submit_do_query=1&amp;tabCode=waitSend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/537793278707.html?spm=b26110380.sw1688.mof001.232.NPPTDN</t>
-  </si>
-  <si>
-    <t>福建福州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46.55+12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Small Starfish Sleeping Bag Clip Cotton Baby Sleeping Bag Winter Thicker Cotton Sleeping Bag  小海星睡袋夹棉 婴儿睡袋 冬季加厚款 纯棉睡袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RealBubee RB09 Warm Milk Liquid Thermostat Bottle Disinfection Bottle Warmer Hot Milk Bottle瑞尔芭比暖奶器液体恒温暖酒器奶瓶消毒保温双瓶温奶器热奶器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baby Bed Head Childrens Toys Q Meng Owl Tumbler High-Quality Fall-Resistant Baby Toys RB34 婴儿床头儿童玩具Q萌猫头鹰不倒翁 高品质耐摔婴儿玩具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.5+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东汕头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/549099713339.html?spm=a2615.7691456.0.0.ec169cfXrPvTm</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/548091073925.html?spm=b26110380.sw1688.mof001.38.28CAnE&amp;tracelog=p4p</t>
-  </si>
-  <si>
-    <t>浙江义乌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.05+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Children's Toy 23.5cm Large Rattle Drums Infant Hand Drum RB35 儿童玩具 23.5cm大号拨浪鼓摇鼓 婴幼儿手摇鼓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.75+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东汕头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/556016949803.html?spm=a2615.7691456.0.0.42734db5F1vTfj</t>
-  </si>
-  <si>
-    <t>Ruanjiao Animal Hand Ball Baby Baby Band Catch Rattle Ball Fitness Soft Rubber Ball Bell Ball Early Education Toys RB36 软胶动物手抓球 婴儿宝宝手抓摇铃球 健身软胶球铃 铛球早教玩具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/556283675121.html?spm=a2615.7691456.0.0.2c74d6eeQfjY0J</t>
-  </si>
-  <si>
-    <t>16.5+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sound And Light Soft Animal Early Childhood Educational Toys RB37  声光软胶动物 幼儿早教益智玩具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swan 24 Hole Polyphonic C Harmonica Beginner Children Adult Students Playing Musical Instruments RB38  天鹅24孔复音C调口琴初学者儿童成人学生演奏乐器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/544677722928.html?spm=b26110380.sw1688.mof001.569.FKjC7z</t>
-  </si>
-  <si>
-    <t>24.5+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">义乌市诚信三街57号201室 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/544788772369.html?spm=b26110380.sw1688.mof001.484.FKjC7z</t>
-  </si>
-  <si>
-    <t>28+8    32+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北廊坊           50个包邮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">75         82 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-Tone Thumb Piano Children's Percussion Instrument Finger Piano Puzzle Music Thumb Piano RB39  10音拇指琴儿童打击乐器手指琴益智乐器拇指钢琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.5+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>义乌市北苑街道青莲三区15幢1单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/560549924371.html?spm=a2615.7691456.0.0.35f766cfIa5z8s</t>
-  </si>
-  <si>
-    <t>Leisure Decompression Game Finger Yo-Yo Children Led Colorful Glow Finger Yo-Yo RB40  休闲减压游戏指尖悠悠球 儿童led七彩发光手指溜溜球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Children's Traditional Auspicious 16CM Rattle Drum Toys Infants And Young Children Beat The Drums Beat Percussion Instruments  RB41  儿童16CM传统吉祥手摇铃鼓玩具 婴幼儿手拍鼓 拍打击乐器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.55+9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/523284260167.html?spm=b26110380.sw1688.mof001.833.FKjC7z</t>
-  </si>
-  <si>
-    <t>RB42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Breastfeeding Bra Stereotyped Postpartum Cotton Spill Pad Washable RB42   哺乳文胸定型垫 产后全棉防溢乳垫可洗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/531547011330.html?spm=a261y.7663282.0.0.218c4053wuJyai</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/557224103598.html?spm=a2615.7691456.0.0.3f8fb53f8q6LmB</t>
-  </si>
-  <si>
-    <t>Realbubee30 Breastfeeding  Milk Storage Bag  Breastfeeding Bag 100ml   realbubee30片装母乳储存存奶袋 储奶袋装奶袋母乳保鲜袋100ml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江宁波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22+7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.5+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏 镇江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/541956168712.html?spm=a360q.8258388.0.0.Hm6FQs</t>
-  </si>
-  <si>
-    <t>QC1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modern Pregnancy Maternity Pregnancy Underwear Quality Cotton Crotch Low Waist Care Abdominal Pregnancy Large Size Pregnancy Shorts Underwear  QC1  摩登孕妈怀孕内裤优质棉里裆低腰托腹产妇孕期大码怀孕期短裤内衣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国 浙江 金华 义乌市北苑街道春华路588号A5-201室（托管289）</t>
-  </si>
-  <si>
-    <t>Portable Infant Chair Seat Bag Baby Safety Strap 7 Color Dining Chair Bag QC2   便携婴幼儿餐椅 座椅包 宝宝安全背带7色餐椅袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QC2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/560063434865.html?spm=a261y.7663282.0.0.69491e63yxhyy6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/525359056142.html?spm=b26110380.sw1688.mof001.91.swlACm&amp;tracelog=p4p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽 六安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.5+5   8.71+5            7.21+5           5.46+5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30.99   28.99                26.99          23.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江台州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/538882543262.html?spm=b26110380.8015204.xshy005.5.TTOV0D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/539024177971.html?spm=a260k.635.201611281604.244.BqzmTi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/524362509883.html?spm=a2615.7691456.0.0.579a2bdaVi2Yii</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QC3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plus Size Children Toilet Bowl Child Toilet Seat Pad Baby Toilet QC3   加大号儿童坐便器马桶圈宝宝坐便圈小孩马桶盖垫婴幼儿座便器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QC4</t>
-  </si>
-  <si>
-    <t>32+12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东东莞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/562635348541.html?spm=b26110380.sw1688.mof001.70.lvZS9v&amp;tracelog=p4p</t>
-  </si>
-  <si>
-    <t>Newborn Baby Wide-Mouth Drop Proof, Children's Glass Bottle With Silicone Cover QC4 新生婴儿宽口防摔防爆 儿童玻璃奶瓶带硅胶套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/44162939525.html?spm=b26110380.sw1688.mof001.42.dXMwib&amp;sk=consign</t>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/44162939525.html?spm=a2615.7691456.0.0.6301b973lkoptb</t>
-  </si>
-  <si>
-    <t>广东阳江</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infant Nasal Aspirator, Thermometer And Other Care 10 Sets QC5 婴幼儿吸鼻器、体温计等护理10件套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QC5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QC6</t>
-  </si>
-  <si>
-    <t>16.5+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广东深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.1688.com/offer/1263847151.html?spm=a261y.7663282.0.0.322df619beykKs</t>
-  </si>
-  <si>
-    <t>商品信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诺比</t>
-  </si>
-  <si>
-    <t>品名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防漏超大婴儿床垫  </t>
-  </si>
-  <si>
-    <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95*75CM </t>
-  </si>
-  <si>
-    <t>成分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面料：100%聚酯纤维                            底：PVC防水胶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nobby 95x75CM PVC Leak-Proof Baby Mattress Urine Isolation Mattress QC6 诺比95x75CM PVC防漏超大婴儿床垫 隔尿床垫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>旅行青蛙公仔  毛绒玩具软体青蛙玩偶   Travel Frog Doll Plush Toys Software Frog Doll QC7</t>
+  </si>
+  <si>
+    <t>QC7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2      67.2   </t>
+  </si>
+  <si>
+    <t>25+7       35+7</t>
+  </si>
+  <si>
+    <t>江苏 扬州</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/564837726147.html?spm=a261y.7663282.0.0.4f734f86bBq5x4</t>
+  </si>
+  <si>
+    <t>起订量</t>
+  </si>
+  <si>
+    <t>标价（RMB）</t>
+  </si>
+  <si>
+    <t>进价（RMB）</t>
+  </si>
+  <si>
+    <t>重量（KG）</t>
+  </si>
+  <si>
+    <t>快递费（RMB）</t>
+  </si>
+  <si>
+    <t>备用链接</t>
+  </si>
+  <si>
+    <t>SHYP-1</t>
+  </si>
+  <si>
+    <t>新生儿枕 婴儿睡眠定位垫 防偏头定型枕         Neonatal Pillow Baby Sleep Positioning Pad Anti-Migraine Stereotypes Pillow SHYP-1</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/543240620776.html?spm=a262n.8097253.192.16.ed117296UwZSYh</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.999.14.1254523cVH9Sm3&amp;id=544484917702&amp;ns=1#detail</t>
+  </si>
+  <si>
+    <t>SHYP-2</t>
+  </si>
+  <si>
+    <t>儿童汽车座椅护头枕/宝宝保护颈椎旅行头部枕头
+Child Car Seat Headrest / Baby Head Protection Cervical Spine Pillow  SHYP-2</t>
+  </si>
+  <si>
+    <t>https://detail.1688.com/offer/520156120379.html?spm=a2615.7691456.0.0.32b86b48md5vzk</t>
+  </si>
+  <si>
+    <r>
+      <t>36.8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">https://item.taobao.com/item.htm?spm=a230r.1.999.23.7a63523crI8Gv6&amp;id=543094090323&amp;ns=1#detail       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://item.taobao.com/item.htm?spm=a230r.1.999.51.7a63523crI8Gv6&amp;id=551410098347&amp;ns=1#detail</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1110,28 +977,12 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1139,27 +990,155 @@
       <sz val="11"/>
       <color rgb="FF555555"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,12 +1147,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCFA76"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1182,125 +1341,360 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFFCFA76"/>
+      <color rgb="00FCFA76"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1322,7 +1716,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1335,8 +1729,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2971801" y="266701"/>
-          <a:ext cx="1352549" cy="1352549"/>
+          <a:off x="2971800" y="266700"/>
+          <a:ext cx="1352550" cy="1352550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,7 +1760,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1379,8 +1773,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981326" y="1800225"/>
-          <a:ext cx="1247774" cy="1247774"/>
+          <a:off x="2981325" y="1800225"/>
+          <a:ext cx="1247775" cy="1247140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1410,7 +1804,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1454,7 +1848,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1467,8 +1861,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2971801" y="4819652"/>
-          <a:ext cx="1323974" cy="1323974"/>
+          <a:off x="2971800" y="4819650"/>
+          <a:ext cx="1323975" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,7 +1892,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1511,8 +1905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981326" y="6476999"/>
-          <a:ext cx="1181099" cy="1181099"/>
+          <a:off x="2981325" y="6476365"/>
+          <a:ext cx="1181100" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1542,7 +1936,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1555,7 +1949,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038475" y="9524999"/>
+          <a:off x="3038475" y="9524365"/>
           <a:ext cx="1171575" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1586,7 +1980,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1630,7 +2024,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1674,7 +2068,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1687,8 +2081,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038476" y="14106525"/>
-          <a:ext cx="1194553" cy="1209674"/>
+          <a:off x="3038475" y="14106525"/>
+          <a:ext cx="1194435" cy="1209040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1718,7 +2112,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1731,7 +2125,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981327" y="15449550"/>
+          <a:off x="2981325" y="15449550"/>
           <a:ext cx="1381125" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1762,7 +2156,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1775,8 +2169,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2981325" y="17021174"/>
-          <a:ext cx="1362074" cy="1362076"/>
+          <a:off x="2981325" y="17020540"/>
+          <a:ext cx="1361440" cy="1362710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1806,7 +2200,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+        <a:blip r:embed="rId12" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1819,7 +2213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2971799" y="18516600"/>
+          <a:off x="2971165" y="18516600"/>
           <a:ext cx="1352550" cy="1352550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1850,7 +2244,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+        <a:blip r:embed="rId13" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1863,8 +2257,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="20107274"/>
-          <a:ext cx="1714497" cy="1285873"/>
+          <a:off x="2752725" y="20106640"/>
+          <a:ext cx="1713865" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,7 +2288,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+        <a:blip r:embed="rId14" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1907,7 +2301,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981325" y="21574124"/>
+          <a:off x="2981325" y="21573490"/>
           <a:ext cx="1400175" cy="1400175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1938,7 +2332,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+        <a:blip r:embed="rId15" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1952,7 +2346,7 @@
       <xdr:spPr>
         <a:xfrm flipH="1">
           <a:off x="2943225" y="23098125"/>
-          <a:ext cx="1371599" cy="1371599"/>
+          <a:ext cx="1370965" cy="1370965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1982,7 +2376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+        <a:blip r:embed="rId16" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1995,8 +2389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990850" y="24674143"/>
-          <a:ext cx="1282589" cy="1329107"/>
+          <a:off x="2990850" y="24673560"/>
+          <a:ext cx="1282065" cy="1329690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2026,7 +2420,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+        <a:blip r:embed="rId17" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2039,8 +2433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2952751" y="26174700"/>
-          <a:ext cx="1323974" cy="1323974"/>
+          <a:off x="2952750" y="26174700"/>
+          <a:ext cx="1323975" cy="1323340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2070,7 +2464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+        <a:blip r:embed="rId18" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2083,8 +2477,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2877983" y="27905859"/>
-          <a:ext cx="1495323" cy="996882"/>
+          <a:off x="2873375" y="27865705"/>
+          <a:ext cx="1495425" cy="996950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2114,7 +2508,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+        <a:blip r:embed="rId19" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2127,8 +2521,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2729737" y="29194900"/>
-          <a:ext cx="680826" cy="680826"/>
+          <a:off x="2725420" y="29152850"/>
+          <a:ext cx="680720" cy="680720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2158,7 +2552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+        <a:blip r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2171,8 +2565,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3832237" y="29949175"/>
-          <a:ext cx="715182" cy="715182"/>
+          <a:off x="3827780" y="29907230"/>
+          <a:ext cx="715645" cy="715010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2202,7 +2596,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+        <a:blip r:embed="rId21" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2215,8 +2609,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2742963" y="29937177"/>
-          <a:ext cx="672339" cy="672339"/>
+          <a:off x="2738755" y="29895165"/>
+          <a:ext cx="672465" cy="672465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2246,7 +2640,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+        <a:blip r:embed="rId22" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2259,8 +2653,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3845463" y="29186997"/>
-          <a:ext cx="691714" cy="691714"/>
+          <a:off x="3841115" y="29145230"/>
+          <a:ext cx="691515" cy="691515"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2290,7 +2684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+        <a:blip r:embed="rId23" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2303,8 +2697,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2970162" y="30787257"/>
-          <a:ext cx="1319981" cy="1319981"/>
+          <a:off x="2966085" y="30743525"/>
+          <a:ext cx="1319530" cy="1319530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2334,7 +2728,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+        <a:blip r:embed="rId24" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2347,8 +2741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3000884" y="32312075"/>
-          <a:ext cx="1331454" cy="1331454"/>
+          <a:off x="2996565" y="32266255"/>
+          <a:ext cx="1331595" cy="1331595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,7 +2772,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+        <a:blip r:embed="rId25" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2391,8 +2785,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2948448" y="33838127"/>
-          <a:ext cx="1291714" cy="1291712"/>
+          <a:off x="2943860" y="33790255"/>
+          <a:ext cx="1292225" cy="1291590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2422,7 +2816,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+        <a:blip r:embed="rId26" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2435,8 +2829,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2949675" y="35334677"/>
-          <a:ext cx="1259759" cy="1259759"/>
+          <a:off x="2945130" y="35284410"/>
+          <a:ext cx="1259840" cy="1259840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,7 +2860,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+        <a:blip r:embed="rId27" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2479,7 +2873,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2949680" y="36942661"/>
+          <a:off x="2945130" y="36890325"/>
           <a:ext cx="1270000" cy="1270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2510,7 +2904,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+        <a:blip r:embed="rId28" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2523,8 +2917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2957130" y="38500359"/>
-          <a:ext cx="1231822" cy="1219502"/>
+          <a:off x="2952750" y="38446075"/>
+          <a:ext cx="1231900" cy="1219835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2554,7 +2948,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+        <a:blip r:embed="rId29" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2567,8 +2961,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2929193" y="39953790"/>
-          <a:ext cx="1299496" cy="1299496"/>
+          <a:off x="2924810" y="39897685"/>
+          <a:ext cx="1299845" cy="1299210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,7 +2992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+        <a:blip r:embed="rId30" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2611,8 +3005,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2929195" y="41500323"/>
-          <a:ext cx="1321208" cy="1321208"/>
+          <a:off x="2924810" y="41442005"/>
+          <a:ext cx="1321435" cy="1321435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2642,7 +3036,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+        <a:blip r:embed="rId31" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2655,8 +3049,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2958690" y="42973931"/>
-          <a:ext cx="1383890" cy="1383890"/>
+          <a:off x="2954655" y="42913300"/>
+          <a:ext cx="1383665" cy="1384300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2686,7 +3080,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+        <a:blip r:embed="rId32" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2699,8 +3093,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2959921" y="44510223"/>
-          <a:ext cx="1372418" cy="1372418"/>
+          <a:off x="2955925" y="44448095"/>
+          <a:ext cx="1372235" cy="1372235"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2730,7 +3124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+        <a:blip r:embed="rId33" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2743,8 +3137,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2939435" y="46057983"/>
-          <a:ext cx="1321210" cy="1321210"/>
+          <a:off x="2934970" y="45993685"/>
+          <a:ext cx="1321435" cy="1320800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2774,7 +3168,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+        <a:blip r:embed="rId34" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2787,8 +3181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2920999" y="47565596"/>
-          <a:ext cx="1319161" cy="1319161"/>
+          <a:off x="2916555" y="47499270"/>
+          <a:ext cx="1319530" cy="1318895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2818,7 +3212,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+        <a:blip r:embed="rId35" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2831,8 +3225,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2929196" y="49130566"/>
-          <a:ext cx="1310966" cy="1310966"/>
+          <a:off x="2924810" y="49062005"/>
+          <a:ext cx="1311275" cy="1311275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2862,7 +3256,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+        <a:blip r:embed="rId36" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2875,8 +3269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2970161" y="50625887"/>
-          <a:ext cx="1300726" cy="1300726"/>
+          <a:off x="2966085" y="50555525"/>
+          <a:ext cx="1300480" cy="1300480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2906,7 +3300,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+        <a:blip r:embed="rId37" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2919,8 +3313,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2907481" y="52171189"/>
-          <a:ext cx="1383890" cy="1383890"/>
+          <a:off x="2903220" y="52098575"/>
+          <a:ext cx="1383665" cy="1383665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2950,7 +3344,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+        <a:blip r:embed="rId38" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2963,8 +3357,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2989415" y="53686996"/>
-          <a:ext cx="1312197" cy="1312197"/>
+          <a:off x="2985135" y="53612415"/>
+          <a:ext cx="1311910" cy="1311910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2994,7 +3388,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+        <a:blip r:embed="rId39" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3007,8 +3401,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990643" y="55255241"/>
-          <a:ext cx="1300727" cy="1300727"/>
+          <a:off x="2986405" y="55178325"/>
+          <a:ext cx="1300480" cy="1301115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3038,7 +3432,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+        <a:blip r:embed="rId40" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3051,8 +3445,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2949672" y="56689113"/>
-          <a:ext cx="1391678" cy="1391678"/>
+          <a:off x="2945130" y="56610250"/>
+          <a:ext cx="1391920" cy="1391920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3082,7 +3476,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+        <a:blip r:embed="rId41" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3095,8 +3489,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3493129" y="58942339"/>
-          <a:ext cx="1074060" cy="716934"/>
+          <a:off x="3488690" y="58861325"/>
+          <a:ext cx="1074420" cy="716915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3126,7 +3520,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+        <a:blip r:embed="rId42" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3139,8 +3533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2667582" y="58184435"/>
-          <a:ext cx="1089406" cy="727178"/>
+          <a:off x="2663190" y="58103770"/>
+          <a:ext cx="1089660" cy="727075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3170,7 +3564,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+        <a:blip r:embed="rId43" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3183,8 +3577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876754" y="59750222"/>
-          <a:ext cx="1424859" cy="1424859"/>
+          <a:off x="2872740" y="59667140"/>
+          <a:ext cx="1424305" cy="1424940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3214,7 +3608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+        <a:blip r:embed="rId44" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3227,8 +3621,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2877984" y="61267258"/>
-          <a:ext cx="1403146" cy="1403146"/>
+          <a:off x="2873375" y="61182250"/>
+          <a:ext cx="1403350" cy="1403350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3258,7 +3652,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+        <a:blip r:embed="rId45" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3271,8 +3665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876756" y="62821576"/>
-          <a:ext cx="1415844" cy="1415844"/>
+          <a:off x="2872740" y="62734825"/>
+          <a:ext cx="1415415" cy="1415415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3302,7 +3696,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+        <a:blip r:embed="rId46" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3315,8 +3709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2876754" y="64318124"/>
-          <a:ext cx="1435102" cy="1435102"/>
+          <a:off x="2872740" y="64228980"/>
+          <a:ext cx="1435100" cy="1435100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3346,7 +3740,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+        <a:blip r:embed="rId47" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3359,8 +3753,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886993" y="65854415"/>
-          <a:ext cx="1394135" cy="1394135"/>
+          <a:off x="2882900" y="65763140"/>
+          <a:ext cx="1393825" cy="1394460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3390,7 +3784,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+        <a:blip r:embed="rId48" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3403,8 +3797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3002219" y="67419855"/>
-          <a:ext cx="1071514" cy="1364984"/>
+          <a:off x="2997835" y="67326510"/>
+          <a:ext cx="1071880" cy="1365250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3434,7 +3828,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+        <a:blip r:embed="rId49" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3447,8 +3841,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2867742" y="68887258"/>
-          <a:ext cx="1453126" cy="1453126"/>
+          <a:off x="2863215" y="68792090"/>
+          <a:ext cx="1453515" cy="1452880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3478,7 +3872,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+        <a:blip r:embed="rId50" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3491,8 +3885,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2918950" y="70423546"/>
-          <a:ext cx="1423631" cy="1423631"/>
+          <a:off x="2914650" y="70326250"/>
+          <a:ext cx="1423670" cy="1423670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3522,7 +3916,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+        <a:blip r:embed="rId51" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3535,8 +3929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2929193" y="71929113"/>
-          <a:ext cx="1433870" cy="1433870"/>
+          <a:off x="2924810" y="71829930"/>
+          <a:ext cx="1433830" cy="1433830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3566,7 +3960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+        <a:blip r:embed="rId52" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3579,8 +3973,127 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3009899" y="73484657"/>
-          <a:ext cx="1342923" cy="1342923"/>
+          <a:off x="3005455" y="73383140"/>
+          <a:ext cx="1343025" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>386080</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1686560</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1461135</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图片 53" descr="8537653944_531051579.400x400"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3024505" y="74933810"/>
+          <a:ext cx="1300480" cy="1374775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1840230</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1451610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="3724006326_1731816815.400x400"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="385445"/>
+          <a:ext cx="1725930" cy="1409065"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1666240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1418590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="2249192881_1731816815.400x400"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="1876425"/>
+          <a:ext cx="1409065" cy="1409065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3593,7 +4106,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3635,7 +4148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3670,7 +4183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3873,1448 +4386,2282 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="25.625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="18.125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="25.625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.875" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="25.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="9.375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="18.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="120" customHeight="1" spans="1:9">
+      <c r="A2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3">
+        <v>149</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="120" customHeight="1" spans="1:9">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="120" customHeight="1" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="120" customHeight="1" spans="1:9">
+      <c r="A5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3">
+        <v>133</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" ht="120" customHeight="1" spans="1:9">
+      <c r="A6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3">
+        <v>210</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="120" customHeight="1" spans="1:10">
+      <c r="A7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="8">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" ht="120" customHeight="1" spans="1:10">
+      <c r="A8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3">
+        <v>357</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" ht="120" customHeight="1" spans="1:9">
+      <c r="A9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3">
+        <v>129</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.68</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" ht="120" customHeight="1" spans="1:9">
+      <c r="A10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3">
+        <v>147</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" ht="120" customHeight="1" spans="1:9">
+      <c r="A11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.055</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" ht="120" customHeight="1" spans="1:9">
+      <c r="A12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" ht="120" customHeight="1" spans="1:9">
+      <c r="A13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="3">
+        <v>29.9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" ht="120" customHeight="1" spans="1:9">
+      <c r="A14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="120" customHeight="1" spans="1:10">
+      <c r="A15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" ht="120" customHeight="1" spans="1:9">
+      <c r="A16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="3">
+        <v>38.3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" ht="120" customHeight="1" spans="1:10">
+      <c r="A17" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" ht="120" customHeight="1" spans="1:10">
+      <c r="A18" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="3">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.096</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" ht="120" customHeight="1" spans="1:9">
+      <c r="A19" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="3">
+        <v>23</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.022</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" ht="120" customHeight="1" spans="1:9">
+      <c r="A20" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="3">
+        <v>19.9</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.085</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" ht="120" customHeight="1" spans="1:10">
+      <c r="A21" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" ht="120" customHeight="1" spans="1:9">
+      <c r="A22" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" s="3">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" ht="120" customHeight="1" spans="1:9">
+      <c r="A23" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="3">
+        <v>89</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" ht="120" customHeight="1" spans="1:9">
+      <c r="A24" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" ht="120" customHeight="1" spans="1:9">
+      <c r="A25" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="3">
+        <v>31.9</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" ht="120" customHeight="1" spans="1:9">
+      <c r="A26" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="3">
+        <v>63</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" ht="120" customHeight="1" spans="1:9">
+      <c r="A27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="3">
+        <v>39.9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>149</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="28" ht="120" customHeight="1" spans="1:9">
+      <c r="A28" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="3">
+        <v>236.5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" ht="120" customHeight="1" spans="1:9">
+      <c r="A29" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" ht="120" customHeight="1" spans="1:9">
+      <c r="A30" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="3">
+        <v>139</v>
+      </c>
+      <c r="F30" s="3">
+        <v>60</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" ht="120" customHeight="1" spans="1:9">
+      <c r="A31" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="3">
+        <v>119</v>
+      </c>
+      <c r="F31" s="3">
+        <v>50</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" ht="120" customHeight="1" spans="1:9">
+      <c r="A32" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="3">
+        <v>159</v>
+      </c>
+      <c r="F32" s="3">
+        <v>79</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" ht="120" customHeight="1" spans="1:9">
+      <c r="A33" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" s="3">
+        <v>87.9</v>
+      </c>
+      <c r="F33" s="3">
+        <v>40</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" ht="120" customHeight="1" spans="1:9">
+      <c r="A34" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" s="3">
+        <v>109</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" ht="120" customHeight="1" spans="1:9">
+      <c r="A35" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" s="3">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" ht="120" customHeight="1" spans="1:9">
+      <c r="A36" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="3">
+        <v>23</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" ht="120" customHeight="1" spans="1:9">
+      <c r="A37" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="3">
+        <v>39</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" ht="120" customHeight="1" spans="1:9">
+      <c r="A38" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="3">
+        <v>48</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" ht="120" customHeight="1" spans="1:9">
+      <c r="A39" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="3">
+        <v>65</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" ht="120" customHeight="1" spans="1:9">
+      <c r="A40" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" ht="120" customHeight="1" spans="1:9">
+      <c r="A41" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" s="3">
+        <v>23</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" ht="120" customHeight="1" spans="1:9">
+      <c r="A42" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" s="3">
+        <v>16.66</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" ht="120" customHeight="1" spans="1:9">
+      <c r="A43" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E43" s="3">
+        <v>36</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" ht="120" customHeight="1" spans="1:9">
+      <c r="A44" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="3">
+        <v>59.9</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" ht="120" customHeight="1" spans="1:9">
+      <c r="A45" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="3">
+        <v>26.25</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" ht="120" customHeight="1" spans="1:9">
+      <c r="A46" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" s="3">
+        <v>89</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" ht="120" customHeight="1" spans="1:10">
+      <c r="A47" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="3">
+        <v>43.2</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" ht="120" customHeight="1" spans="1:9">
+      <c r="A48" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1">
-        <v>133</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.46</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1">
-        <v>210</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>357</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="1">
-        <v>129</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.68</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="1">
-        <v>147</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E48" s="3">
         <v>89</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="1">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5.5E-2</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="1">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="1">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="1">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="1">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="1">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="F48" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" ht="120" customHeight="1" spans="1:10">
+      <c r="A49" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="3">
         <v>52</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="1">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="1">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="1">
-        <v>42</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="1">
-        <v>89</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="1">
-        <v>31.9</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="1">
-        <v>63</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="1">
-        <v>39.9</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F49" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G49" s="3">
         <v>0.45</v>
       </c>
-      <c r="H27" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="1">
-        <v>236.5</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="1">
-        <v>139</v>
-      </c>
-      <c r="F30" s="1">
-        <v>60</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="1">
-        <v>119</v>
-      </c>
-      <c r="F31" s="1">
-        <v>50</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="1">
-        <v>159</v>
-      </c>
-      <c r="F32" s="1">
-        <v>79</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.85</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E33" s="1">
-        <v>87.9</v>
-      </c>
-      <c r="F33" s="1">
-        <v>40</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="1">
-        <v>109</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="1">
-        <v>39</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="1">
-        <v>23</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.03</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E37" s="1">
-        <v>39</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="1">
-        <v>48</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E39" s="1">
-        <v>65</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0.18</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.95</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E41" s="1">
-        <v>23</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" s="1">
-        <v>16.66</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="1">
-        <v>36</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E44" s="1">
-        <v>59.9</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E45" s="1">
-        <v>26.25</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G45" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E46" s="1">
-        <v>89</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G46" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="1">
-        <v>43.2</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G47" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="H49" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E48" s="1">
-        <v>89</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G48" s="1">
-        <v>0.54</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="8" t="s">
+    </row>
+    <row r="50" ht="120" customHeight="1" spans="1:9">
+      <c r="A50" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45.6</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="I50" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E49" s="1">
-        <v>52</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D50" s="1" t="s">
+    </row>
+    <row r="51" ht="120" customHeight="1" spans="1:9">
+      <c r="A51" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E50" s="1">
-        <v>45.6</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G50" s="1">
-        <v>0.31</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="D51" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="E51" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>84</v>
-      </c>
+      <c r="F51" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="9"/>
+      <c r="C52"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="9"/>
+      <c r="C53"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="9"/>
+      <c r="C54"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="9"/>
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="9"/>
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="9"/>
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="9"/>
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="9"/>
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="9"/>
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="9"/>
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="9"/>
+      <c r="C62"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="9"/>
+      <c r="C63"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="9"/>
+      <c r="C64"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="9"/>
+      <c r="C65"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="9"/>
+      <c r="C66"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="9"/>
+      <c r="C67"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="9"/>
+      <c r="C68"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="9"/>
+      <c r="C69"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="9"/>
+      <c r="C70"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="9"/>
+      <c r="C71"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="9"/>
+      <c r="C72"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="9"/>
+      <c r="C73"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="9"/>
+      <c r="C74"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="9"/>
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="9"/>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="9"/>
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="9"/>
+      <c r="C78"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="9"/>
+      <c r="C79"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="9"/>
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="9"/>
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="9"/>
+      <c r="C82"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="9"/>
+      <c r="C83"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="9"/>
+      <c r="C84"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="9"/>
+      <c r="C85"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="9"/>
+      <c r="C86"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="9"/>
+      <c r="C87"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="9"/>
+      <c r="C88"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="9"/>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="9"/>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="9"/>
+      <c r="C91"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="9"/>
+      <c r="C92"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="9"/>
+      <c r="C93"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="9"/>
+      <c r="C94"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="9"/>
+      <c r="C95"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="9"/>
+      <c r="C96"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="9"/>
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="9"/>
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="9"/>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="9"/>
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="9"/>
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="9"/>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="9"/>
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="9"/>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="9"/>
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="9"/>
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="9"/>
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="9"/>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="9"/>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="9"/>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="9"/>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="9"/>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="9"/>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="9"/>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="9"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="9"/>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="9"/>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="9"/>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="9"/>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="9"/>
+      <c r="C120"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="9"/>
+      <c r="C121"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="9"/>
+      <c r="C122"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="9"/>
+      <c r="C123"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="9"/>
+      <c r="C124"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="9"/>
+      <c r="C125"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="9"/>
+      <c r="C126"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="9"/>
+      <c r="C127"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="9"/>
+      <c r="C128"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="9"/>
+      <c r="C129"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="9"/>
+      <c r="C130"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="9"/>
+      <c r="C131"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="9"/>
+      <c r="C132"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="9"/>
+      <c r="C133"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="9"/>
+      <c r="C134"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="9"/>
+      <c r="C135"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="9"/>
+      <c r="C136"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="9"/>
+      <c r="C137"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="9"/>
+      <c r="C138"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="9"/>
+      <c r="C139"/>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="9"/>
+      <c r="C140"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="9"/>
+      <c r="C141"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="9"/>
+      <c r="C142"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="9"/>
+      <c r="C143"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="9"/>
+      <c r="C144"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="9"/>
+      <c r="C145"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="9"/>
+      <c r="C146"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="9"/>
+      <c r="C147"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="9"/>
+      <c r="C148"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="9"/>
+      <c r="C149"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="9"/>
+      <c r="C150"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="9"/>
+      <c r="C151"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="9"/>
+      <c r="C152"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="9"/>
+      <c r="C153"/>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="9"/>
+      <c r="C154"/>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="9"/>
+      <c r="C155"/>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="9"/>
+      <c r="C156"/>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="9"/>
+      <c r="C157"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="9"/>
+      <c r="C158"/>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="9"/>
+      <c r="C159"/>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="9"/>
+      <c r="C160"/>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="9"/>
+      <c r="C161"/>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="9"/>
+      <c r="C162"/>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="9"/>
+      <c r="C163"/>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="9"/>
+      <c r="C164"/>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="9"/>
+      <c r="C165"/>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="9"/>
+      <c r="C166"/>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="9"/>
+      <c r="C167"/>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="9"/>
+      <c r="C168"/>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="9"/>
+      <c r="C169"/>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="9"/>
+      <c r="C170"/>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="9"/>
+      <c r="C171"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="9"/>
+      <c r="C172"/>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="9"/>
+      <c r="C173"/>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="9"/>
+      <c r="C174"/>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="9"/>
+      <c r="C175"/>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="9"/>
+      <c r="C176"/>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="9"/>
+      <c r="C177"/>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="9"/>
+      <c r="C178"/>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="9"/>
+      <c r="C179"/>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="9"/>
+      <c r="C180"/>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="9"/>
+      <c r="C181"/>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="9"/>
+      <c r="C182"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="9"/>
+      <c r="C183"/>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="9"/>
+      <c r="C184"/>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="9"/>
+      <c r="C185"/>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="9"/>
+      <c r="C186"/>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="9"/>
+      <c r="C187"/>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="9"/>
+      <c r="C188"/>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="9"/>
+      <c r="C189"/>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="9"/>
+      <c r="C190"/>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="9"/>
+      <c r="C191"/>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="9"/>
+      <c r="C192"/>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="9"/>
+      <c r="C193"/>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="9"/>
+      <c r="C194"/>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="9"/>
+      <c r="C195"/>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="9"/>
+      <c r="C196"/>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="9"/>
+      <c r="C197"/>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="9"/>
+      <c r="C198"/>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="9"/>
+      <c r="C199"/>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="9"/>
+      <c r="C200"/>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="9"/>
+      <c r="C201"/>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="9"/>
+      <c r="C202"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="9"/>
+      <c r="C203"/>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="9"/>
+      <c r="C204"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="9"/>
+      <c r="C205"/>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="9"/>
+      <c r="C206"/>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="9"/>
+      <c r="C207"/>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="9"/>
+      <c r="C208"/>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="9"/>
+      <c r="C209"/>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="9"/>
+      <c r="C210"/>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="9"/>
+      <c r="C211"/>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="9"/>
+      <c r="C212"/>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="9"/>
+      <c r="C213"/>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="9"/>
+      <c r="C214"/>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="9"/>
+      <c r="C215"/>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="9"/>
+      <c r="C216"/>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="9"/>
+      <c r="C217"/>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="9"/>
+      <c r="C218"/>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="9"/>
+      <c r="C219"/>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="9"/>
+      <c r="C220"/>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="9"/>
+      <c r="C221"/>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="9"/>
+      <c r="C222"/>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="9"/>
+      <c r="C223"/>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="9"/>
+      <c r="C224"/>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="9"/>
+      <c r="C225"/>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="9"/>
+      <c r="C226"/>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="9"/>
+      <c r="C227"/>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="9"/>
+      <c r="C228"/>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="9"/>
+      <c r="C229"/>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="9"/>
+      <c r="C230"/>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="9"/>
+      <c r="C231"/>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="9"/>
+      <c r="C232"/>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="9"/>
+      <c r="C233"/>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="9"/>
+      <c r="C234"/>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="9"/>
+      <c r="C235"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1"/>
-    <hyperlink ref="I16" r:id="rId2"/>
-    <hyperlink ref="I24" r:id="rId3"/>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="I15" r:id="rId5"/>
-    <hyperlink ref="I21" r:id="rId6"/>
-    <hyperlink ref="J21" r:id="rId7" display="https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a1z02.1.972272805.d4919661.5b7ea0904xUFND&amp;action=itemlist/BoughtQueryAction&amp;event_submit_do_query=1&amp;tabCode=waitSend                      备用的"/>
-    <hyperlink ref="I27" r:id="rId8"/>
-    <hyperlink ref="J47" r:id="rId9"/>
-    <hyperlink ref="I47" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId2" display="https://detail.1688.com/offer/537008830578.html?spm=a2615.7691456.0.0.55c71c83PKrHw4"/>
+    <hyperlink ref="I16" r:id="rId3" display="https://detail.1688.com/offer/561746043189.html?spm=b26110380.sw1688.mof001.1329.qCX70d"/>
+    <hyperlink ref="I24" r:id="rId4" display="https://detail.1688.com/offer/538143495803.html?spm=a312h.7841636.1998813769.d_pic_18.DZHuaK&amp;tracelog=p4p"/>
+    <hyperlink ref="I2" r:id="rId5" display="https://detail.1688.com/offer/556273723267.html?spm=a2615.7691456.0.0.22d0e8a6OrKMby"/>
+    <hyperlink ref="I15" r:id="rId6" display="https://detail.1688.com/offer/533932922303.html?spm=b26110380.sw1688.mof001.1097.qCX70d"/>
+    <hyperlink ref="I21" r:id="rId7" display="https://detail.1688.com/offer/525359056142.html?spm=b26110380.sw1688.mof001.91.swlACm&amp;tracelog=p4p"/>
+    <hyperlink ref="J21" r:id="rId8" display="备用的https://buyertrade.taobao.com/trade/itemlist/list_bought_items.htm?spm=a1z02.1.972272805.d4919661.5b7ea0904xUFND&amp;action=itemlist/BoughtQueryAction&amp;event_submit_do_query=1&amp;tabCode=waitSend"/>
+    <hyperlink ref="I27" r:id="rId9" display="https://detail.1688.com/offer/560063434865.html?spm=a261y.7663282.0.0.69491e63yxhyy6"/>
+    <hyperlink ref="J47" r:id="rId10" display="https://detail.1688.com/offer/538882543262.html?spm=b26110380.8015204.xshy005.5.TTOV0D"/>
+    <hyperlink ref="I47" r:id="rId11" display="https://detail.1688.com/offer/539024177971.html?spm=a260k.635.201611281604.244.BqzmTi"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="25.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="76.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="30.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="25.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="26.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="E7" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="E8" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="E10" s="14" t="s">
+    <row r="1" ht="27" spans="1:11">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="E1" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="E12" s="14" t="s">
+      <c r="F1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G1" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.15">
-      <c r="E14" s="14" t="s">
+      <c r="H1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>294</v>
       </c>
     </row>
+    <row r="2" ht="120" customHeight="1" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>90</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" ht="120" customHeight="1" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" ht="120" customHeight="1"/>
+    <row r="5" ht="120" customHeight="1"/>
+    <row r="6" ht="120" customHeight="1"/>
+    <row r="7" ht="120" customHeight="1"/>
+    <row r="8" ht="120" customHeight="1"/>
+    <row r="9" ht="120" customHeight="1"/>
+    <row r="10" ht="120" customHeight="1"/>
+    <row r="11" ht="120" customHeight="1"/>
+    <row r="12" ht="120" customHeight="1"/>
+    <row r="13" ht="120" customHeight="1"/>
+    <row r="14" ht="120" customHeight="1"/>
+    <row r="15" ht="120" customHeight="1"/>
+    <row r="16" ht="120" customHeight="1"/>
+    <row r="17" ht="120" customHeight="1"/>
+    <row r="18" ht="120" customHeight="1"/>
+    <row r="19" ht="120" customHeight="1"/>
+    <row r="20" ht="120" customHeight="1"/>
+    <row r="21" ht="120" customHeight="1"/>
+    <row r="22" ht="120" customHeight="1"/>
+    <row r="23" ht="120" customHeight="1"/>
+    <row r="24" ht="120" customHeight="1"/>
+    <row r="25" ht="120" customHeight="1"/>
+    <row r="26" ht="120" customHeight="1"/>
+    <row r="27" ht="120" customHeight="1"/>
+    <row r="28" ht="120" customHeight="1"/>
+    <row r="29" ht="120" customHeight="1"/>
+    <row r="30" ht="120" customHeight="1"/>
+    <row r="31" ht="120" customHeight="1"/>
+    <row r="32" ht="120" customHeight="1"/>
+    <row r="33" ht="120" customHeight="1"/>
+    <row r="34" ht="120" customHeight="1"/>
+    <row r="35" ht="120" customHeight="1"/>
+    <row r="36" ht="120" customHeight="1"/>
+    <row r="37" ht="120" customHeight="1"/>
+    <row r="38" ht="120" customHeight="1"/>
+    <row r="39" ht="120" customHeight="1"/>
+    <row r="40" ht="120" customHeight="1"/>
+    <row r="41" ht="120" customHeight="1"/>
+    <row r="42" ht="120" customHeight="1"/>
+    <row r="43" ht="120" customHeight="1"/>
+    <row r="44" ht="120" customHeight="1"/>
+    <row r="45" ht="120" customHeight="1"/>
+    <row r="46" ht="120" customHeight="1"/>
+    <row r="47" ht="120" customHeight="1"/>
+    <row r="48" ht="120" customHeight="1"/>
+    <row r="49" ht="120" customHeight="1"/>
+    <row r="50" ht="120" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>